--- a/pred_ohlcv/54_21/2019-11-17 IOST ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-17 IOST ohlcv.xlsx
@@ -1120,7 +1120,7 @@
         <v>3706470.472029664</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>19024823.68296134</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>20859025.80505348</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>19141569.41555348</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>19141569.41555348</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>18906988.38055348</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>20235346.66745348</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>20979671.17275348</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>23528783.01345348</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>24838327.42044315</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>23013195.64734315</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>23600095.34670578</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>23086342.20270578</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>22242217.07776688</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>22430054.40806688</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>22638159.14256688</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>22638159.14256688</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>22673370.14256688</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>22477110.90336688</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>22005453.40622638</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>21995985.93352638</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>21638845.66982638</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>21875213.18169705</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>21549715.94909705</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>21858601.47099705</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>21865161.47099705</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>21656152.85329705</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>35860198.07382729</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>38942333.1844114</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>38404763.8688114</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>39658768.8680114</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>39658768.8680114</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>40017968.9037114</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>38942087.9613114</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>37746588.8938114</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>38124532.7843114</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>38187781.6774114</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>38150642.3419114</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>38150642.3419114</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>38135987.7115114</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>38135987.7115114</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>36215610.17521139</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-17 IOST ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-17 IOST ohlcv.xlsx
@@ -3330,7 +3330,7 @@
         <v>19024823.68296134</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>20859025.80505348</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>19141569.41555348</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>19141569.41555348</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>18906988.38055348</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>20235346.66745348</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>20979671.17275348</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>23528783.01345348</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>24838327.42044315</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>23013195.64734315</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>23600095.34670578</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>23086342.20270578</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>22242217.07776688</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>22430054.40806688</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>22638159.14256688</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>22638159.14256688</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>22673370.14256688</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>22477110.90336688</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>22005453.40622638</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>21995985.93352638</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>21638845.66982638</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>21875213.18169705</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>21549715.94909705</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>21858601.47099705</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>21865161.47099705</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>21656152.85329705</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>35606299.68452932</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>35606299.68452932</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>35136073.10472932</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>36775430.19272932</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>37970671.89338369</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>37970671.89338369</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>37685669.91108369</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>37685669.91108369</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>36842231.04818369</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>36226421.50578369</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>36642052.42508369</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>36764417.90168369</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>36764417.90168369</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>36960591.53638369</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>36745738.15838369</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>36572677.49118369</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>36468502.36118369</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>36404763.52288369</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>36921638.38542728</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>36589244.79842728</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>36609213.81282728</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>36450351.90272728</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>35241626.08192728</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>35507887.49672729</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>35507887.49672729</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>35507937.49672729</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>35860198.07382729</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>38942333.1844114</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>38404763.8688114</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>39658768.8680114</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>39658768.8680114</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>40017968.9037114</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>38942087.9613114</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>37746588.8938114</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>38124532.7843114</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>38187781.6774114</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>38150642.3419114</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>38150642.3419114</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>38135987.7115114</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>38135987.7115114</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>36215610.17521139</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>36215610.17521139</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>36652449.29431139</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
